--- a/data/clean_data/Tmall/Tmall_cat.xlsx
+++ b/data/clean_data/Tmall/Tmall_cat.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="原始数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="gmv" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sales" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="atv" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="原始数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gmv" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sales" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atv" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'原始数据'!$A$1:$H$1873</definedName>
